--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_22-03.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_22-03.xlsx
@@ -122,6 +122,9 @@
     <t>CIDOPHAGE 500MG 10 TAB</t>
   </si>
   <si>
+    <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -293,12 +296,21 @@
     <t>NOSTAMINE EYE/NOSE DROPS 15 ML</t>
   </si>
   <si>
+    <t>OCTOVENT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
     <t>OFUSIDIC VISCOUS EYE DROPS 5 ML</t>
   </si>
   <si>
     <t>ONDALENZ 8 MG 5 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
+    <t>OPLEX N PLUS 10 SUPP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -416,7 +428,7 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>7741:0</t>
+    <t>7740:0</t>
   </si>
   <si>
     <t>XITHRONE 500MG 5 F.C.TAB.</t>
@@ -1534,17 +1546,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1552,7 +1564,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1560,17 +1572,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1586,17 +1598,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1612,13 +1624,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>-200</v>
+        <v>120</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1630,7 +1642,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1638,17 +1650,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>47.5</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1664,17 +1676,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>42</v>
+        <v>47.5</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1682,7 +1694,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1690,17 +1702,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1708,7 +1720,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1716,17 +1728,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1734,7 +1746,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1742,17 +1754,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1768,13 +1780,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1794,17 +1806,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1826,7 +1838,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1846,17 +1858,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1872,17 +1884,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1898,13 +1910,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1916,7 +1928,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1924,17 +1936,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1950,17 +1962,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>30.079999999999998</v>
+        <v>55</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1976,13 +1988,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>59.5</v>
+        <v>30.079999999999998</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -2002,13 +2014,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>66</v>
+        <v>59.5</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -2028,17 +2040,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2054,17 +2066,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2080,17 +2092,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2106,17 +2118,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2132,17 +2144,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2150,7 +2162,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2158,17 +2170,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2190,11 +2202,11 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2210,17 +2222,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2236,13 +2248,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2254,7 +2266,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2262,7 +2274,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -2288,17 +2300,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2314,17 +2326,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2332,7 +2344,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2340,17 +2352,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2366,13 +2378,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2392,17 +2404,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2418,17 +2430,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2444,17 +2456,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2462,7 +2474,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2470,17 +2482,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2496,13 +2508,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2522,17 +2534,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2540,7 +2552,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2548,17 +2560,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2566,7 +2578,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2574,17 +2586,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2600,17 +2612,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2626,17 +2638,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2652,13 +2664,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>21.559999999999999</v>
+        <v>75</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2678,13 +2690,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>28</v>
+        <v>21.559999999999999</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2704,17 +2716,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2730,17 +2742,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2748,7 +2760,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2756,17 +2768,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2774,7 +2786,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2782,13 +2794,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2814,11 +2826,11 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2834,13 +2846,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2860,13 +2872,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2886,17 +2898,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2904,7 +2916,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2912,13 +2924,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2930,7 +2942,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2938,17 +2950,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2956,7 +2968,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2964,13 +2976,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2982,7 +2994,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2990,17 +3002,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>75.200000000000003</v>
+        <v>100</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3008,7 +3020,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -3016,17 +3028,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>77</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3034,7 +3046,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3042,13 +3054,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -3060,7 +3072,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3068,17 +3080,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>84</v>
+        <v>75.200000000000003</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3094,17 +3106,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>68.310000000000002</v>
+        <v>144</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3120,17 +3132,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3146,17 +3158,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3164,7 +3176,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3172,13 +3184,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>39</v>
+        <v>68.310000000000002</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3190,7 +3202,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3198,7 +3210,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
@@ -3224,17 +3236,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3250,13 +3262,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3276,13 +3288,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3294,7 +3306,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3308,7 +3320,7 @@
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3320,7 +3332,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3328,13 +3340,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>531</v>
+        <v>29</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3346,7 +3358,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3354,17 +3366,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>-96</v>
+        <v>23</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3372,7 +3384,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3380,13 +3392,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3398,7 +3410,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3406,13 +3418,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>25</v>
+        <v>531</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3424,7 +3436,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3432,17 +3444,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>53</v>
+        <v>-96</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3450,7 +3462,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3458,17 +3470,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3476,7 +3488,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3484,13 +3496,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3502,7 +3514,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3510,13 +3522,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>25.739999999999998</v>
+        <v>53</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3528,7 +3540,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3536,17 +3548,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>14.67</v>
+        <v>38</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3562,17 +3574,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3588,17 +3600,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>14</v>
+        <v>25.739999999999998</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>89</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3606,7 +3618,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3614,17 +3626,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>86</v>
+        <v>14.67</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3640,17 +3652,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3666,17 +3678,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>42</v>
+        <v>16.5</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>14</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3684,7 +3696,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3692,17 +3704,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3710,7 +3722,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3718,17 +3730,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3736,7 +3748,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3744,17 +3756,17 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>375</v>
+        <v>42</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
@@ -3762,7 +3774,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3770,17 +3782,17 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1">
@@ -3788,7 +3800,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3796,17 +3808,17 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
-        <v>89</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
@@ -3822,17 +3834,17 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>20</v>
+        <v>375</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" ht="24.75" customHeight="1">
@@ -3840,7 +3852,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3848,13 +3860,13 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
@@ -3866,7 +3878,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3874,17 +3886,17 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
@@ -3892,7 +3904,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3900,17 +3912,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3926,13 +3938,13 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>75</v>
+        <v>-2</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
@@ -3944,7 +3956,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3952,13 +3964,13 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
@@ -3970,7 +3982,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -3978,13 +3990,13 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
@@ -3996,7 +4008,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4004,13 +4016,13 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
@@ -4018,37 +4030,115 @@
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
-      <c r="K118" s="10">
-        <v>6485.0600000000004</v>
-      </c>
-      <c r="L118" s="10"/>
-      <c r="M118" s="10"/>
-      <c r="N118" s="10"/>
-    </row>
-    <row r="119" ht="17.25" customHeight="1">
-      <c t="s" r="A119" s="11">
-        <v>155</v>
-      </c>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c t="s" r="F119" s="12">
+      <c r="A118" s="6">
+        <v>115</v>
+      </c>
+      <c t="s" r="B118" s="7">
         <v>156</v>
       </c>
-      <c r="G119" s="12"/>
-      <c r="H119" s="13"/>
-      <c t="s" r="I119" s="14">
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c t="s" r="H118" s="8">
+        <v>152</v>
+      </c>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="9">
+        <v>20</v>
+      </c>
+      <c r="M118" s="9"/>
+      <c t="s" r="N118" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" ht="24.75" customHeight="1">
+      <c r="A119" s="6">
+        <v>116</v>
+      </c>
+      <c t="s" r="B119" s="7">
         <v>157</v>
       </c>
-      <c r="J119" s="14"/>
-      <c r="K119" s="14"/>
-      <c r="L119" s="14"/>
-      <c r="M119" s="14"/>
-      <c r="N119" s="14"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c t="s" r="H119" s="8">
+        <v>90</v>
+      </c>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="9">
+        <v>80</v>
+      </c>
+      <c r="M119" s="9"/>
+      <c t="s" r="N119" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" ht="25.5" customHeight="1">
+      <c r="A120" s="6">
+        <v>117</v>
+      </c>
+      <c t="s" r="B120" s="7">
+        <v>158</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c t="s" r="H120" s="8">
+        <v>9</v>
+      </c>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="9">
+        <v>20</v>
+      </c>
+      <c r="M120" s="9"/>
+      <c t="s" r="N120" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="K121" s="10">
+        <v>6605.5600000000004</v>
+      </c>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="11">
+        <v>159</v>
+      </c>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c t="s" r="F122" s="12">
+        <v>160</v>
+      </c>
+      <c r="G122" s="12"/>
+      <c r="H122" s="13"/>
+      <c t="s" r="I122" s="14">
+        <v>161</v>
+      </c>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="14"/>
+      <c r="N122" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="353">
+  <mergeCells count="362">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4398,10 +4488,19 @@
     <mergeCell ref="B117:G117"/>
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
-    <mergeCell ref="K118:N118"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="I119:N119"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="K121:N121"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="I122:N122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
